--- a/final_data_pipeline/output/312120longform_elec_options_nowhp.xlsx
+++ b/final_data_pipeline/output/312120longform_elec_options_nowhp.xlsx
@@ -691,7 +691,7 @@
         <v>44</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>17.71296296296294</v>
       </c>
       <c r="J4">
         <v>8000</v>
@@ -706,10 +706,10 @@
         <v>1085506.970789521</v>
       </c>
       <c r="N4">
-        <v>1.741590909090909</v>
+        <v>1.872915723725898</v>
       </c>
       <c r="O4">
-        <v>1.89075</v>
+        <v>2.048770944115581</v>
       </c>
       <c r="P4">
         <v>135.6883713486901</v>
@@ -744,7 +744,7 @@
         <v>45</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>17.71296296296294</v>
       </c>
       <c r="J5">
         <v>8000</v>
@@ -791,7 +791,7 @@
         <v>44</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="J6">
         <v>8000</v>
@@ -806,10 +806,10 @@
         <v>439263.8545030078</v>
       </c>
       <c r="N6">
-        <v>1.741590909090909</v>
+        <v>1.572614297115494</v>
       </c>
       <c r="O6">
-        <v>1.89075</v>
+        <v>1.690895540926593</v>
       </c>
       <c r="P6">
         <v>54.90798181287597</v>
@@ -1350,7 +1350,7 @@
         <v>44</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="J17">
         <v>8000</v>
@@ -1365,10 +1365,10 @@
         <v>538259.7276283206</v>
       </c>
       <c r="N17">
-        <v>1.741590909090909</v>
+        <v>1.586359976998275</v>
       </c>
       <c r="O17">
-        <v>1.89075</v>
+        <v>1.707009404388715</v>
       </c>
       <c r="P17">
         <v>67.28246595354007</v>
@@ -1503,7 +1503,7 @@
         <v>44</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="J20">
         <v>8000</v>
@@ -1518,10 +1518,10 @@
         <v>3376861.685603743</v>
       </c>
       <c r="N20">
-        <v>1.741590909090909</v>
+        <v>1.586359976998275</v>
       </c>
       <c r="O20">
-        <v>1.89075</v>
+        <v>1.707009404388715</v>
       </c>
       <c r="P20">
         <v>422.1077107004679</v>
@@ -1809,7 +1809,7 @@
         <v>44</v>
       </c>
       <c r="I26">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="J26">
         <v>8000</v>
@@ -1824,10 +1824,10 @@
         <v>281488.4824294684</v>
       </c>
       <c r="N26">
-        <v>1.741590909090909</v>
+        <v>1.572614297115494</v>
       </c>
       <c r="O26">
-        <v>1.89075</v>
+        <v>1.690895540926593</v>
       </c>
       <c r="P26">
         <v>35.18606030368355</v>
@@ -1862,7 +1862,7 @@
         <v>45</v>
       </c>
       <c r="I27">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="J27">
         <v>8000</v>
